--- a/docs/PT1/PT1_30.07.24v_output.xlsx
+++ b/docs/PT1/PT1_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,949 +505,1127 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731006606.6368628</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731006607.9409516</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731006606.6368628.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731006607.9409516.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.01</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>290.66</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.3499999999999659</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731006623.081267</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731006623.4732206</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006623.081267.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006623.4732206.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>6796.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>6798.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731006624.349366</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731006624.5328727</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006624.349366.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006624.5328727.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>6794.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6800.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731006625.9861932</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731006627.0010142</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006625.9861932.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006627.0010142.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6810</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6810.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731006628.0456655</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731006628.5908759</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006628.0456655.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006628.5908759.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6801</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6802.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731006631.4277442</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731006631.5354733</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006631.4277442.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006631.5354733.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6801</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6804</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731006640.8200915</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731006640.9627376</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731006640.8200915.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731006640.9627376.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>511.2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>511.75</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731006641.6884656</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731006641.6884656.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731006641.6884656.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>511.3</v>
       </c>
-      <c r="J10" t="n">
-        <v>511.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+      <c r="L10" t="n">
+        <v>511.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731006651.3833091</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731006651.3833091.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731006651.3833091.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>1046.2</v>
       </c>
-      <c r="J11" t="n">
-        <v>1046.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>1047.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731006660.8032467</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731006661.088488</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006660.8032467.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006661.088488.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>127.34</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>127.46</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1199999999999903</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731006668.1337807</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731006669.9628265</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731006668.1337807.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731006669.9628265.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>166.16</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>165.66</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731006676.2780552</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731006678.07853</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006676.2780552.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006678.07853.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>51.565</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>51.46</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1049999999999969</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731006681.2406359</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731006682.2432013</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006681.2406359.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006682.2432013.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1420.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1420.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.3999999999998636</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731006686.2364</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731006687.611459</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006686.2364.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006687.611459.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1420.4</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1420.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1999999999998181</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731006688.6459057</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731006689.3009672</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006688.6459057.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006689.3009672.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1419.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1419.8</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.3999999999998636</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731006693.7689338</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731006694.406959</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006693.7689338.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006694.406959.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>60.66</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>60.61</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731006697.5876477</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731006698.0234816</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006697.5876477.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006698.0234816.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>60.6</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>60.49</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731006700.6663451</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731006700.6663451.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731006700.6663451.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>56.89</v>
       </c>
-      <c r="J20" t="n">
-        <v>56.89</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731006704.138936</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731006705.8109405</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731006704.138936.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731006705.8109405.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>141.36</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>141.36</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1440,482 +1633,572 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731006714.6465535</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731006715.3905923</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006714.6465535.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006715.3905923.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>53.93</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>53.97</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731006716.0851543</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731006716.7341485</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006716.0851543.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006716.7341485.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>53.86</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>53.88</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731006717.805616</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731006718.1202114</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006717.805616.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006718.1202114.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>53.83</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>53.9</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731006725.2161465</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731006725.921987</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006725.2161465.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006725.921987.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>374.55</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>374.99</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731006731.071946</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731006731.628406</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006731.071946.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006731.628406.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>0.09734000000000001</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>0.09754</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.0001999999999999919</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731006731.730273</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731006732.261987</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006731.730273.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006732.261987.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>0.09718</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>0.0975</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.0003200000000000008</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731006733.02484</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731006733.02484.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731006733.02484.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>0.09728000000000001</v>
       </c>
-      <c r="J28" t="n">
-        <v>0.09728000000000001</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
+      <c r="L28" t="n">
+        <v>0.09719999999999999</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-8.000000000001062e-05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731006739.109951</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731006740.130563</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731006739.109951.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731006740.130563.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>3020.65</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>3019.95</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.7000000000002728</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731006744.6298044</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731006745.6443527</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731006744.6298044.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731006745.6443527.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>34.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>34.49</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731006746.7180736</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731006748.9639797</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731006746.7180736.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731006748.9639797.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>34.595</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>34.525</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +2212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,6 +2236,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1966,6 +2264,15 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
+      <c r="D2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1979,6 +2286,15 @@
       <c r="C3" t="n">
         <v>3</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.04333333333333419</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1992,6 +2308,15 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.06666666666660603</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2000,11 +2325,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0005199999999999927</v>
+        <v>0.0004399999999999821</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.0001466666666666607</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2013,11 +2347,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5500000000000114</v>
+        <v>0.3500000000000227</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.1750000000000114</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2031,6 +2374,15 @@
       <c r="C7" t="n">
         <v>2</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2044,6 +2396,15 @@
       <c r="C8" t="n">
         <v>2</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2057,6 +2418,15 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2065,11 +2435,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.00999999999999801</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2083,6 +2462,15 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.3499999999999659</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2096,6 +2484,15 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.7000000000002728</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2104,11 +2501,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2122,6 +2528,15 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2135,6 +2550,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.1049999999999969</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2148,6 +2572,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.1199999999999903</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2161,6 +2594,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2174,6 +2616,11 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
